--- a/StructureDefinition-pco-what-matters-priority-focus.xlsx
+++ b/StructureDefinition-pco-what-matters-priority-focus.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>WhatMattersPriorityOrFocus</t>
+    <t>WhatMattersPriority</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-what-matters-priority-focus.xlsx
+++ b/StructureDefinition-pco-what-matters-priority-focus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
